--- a/medicine/Enfance/Jean_Muray/Jean_Muray.xlsx
+++ b/medicine/Enfance/Jean_Muray/Jean_Muray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Muray est un écrivain francophone de romans pour la jeunesse et un traducteur d'auteurs anglo-saxons (Jack London, Herman Melville, Rudyard Kipling, Barbara Cartland, etc.). Il a traduit plus de 234 œuvres[1]. Il est le père de l'essayiste et romancier Philippe Muray (1945-2006).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Muray est un écrivain francophone de romans pour la jeunesse et un traducteur d'auteurs anglo-saxons (Jack London, Herman Melville, Rudyard Kipling, Barbara Cartland, etc.). Il a traduit plus de 234 œuvres. Il est le père de l'essayiste et romancier Philippe Muray (1945-2006).
 </t>
         </is>
       </c>
@@ -511,20 +523,136 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive. La première date est celle de la première édition française.
-En tant qu'auteur
-Série Davy Crockett
-1956 : Davy Crockett, roi des trappeurs. Collection Idéal-Bibliothèque, Éditions Hachette.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive. La première date est celle de la première édition française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Davy Crockett</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1956 : Davy Crockett, roi des trappeurs. Collection Idéal-Bibliothèque, Éditions Hachette.
 1957 : Le Serment de Davy Crockett. Coll. Idéal-Bibliothèque no 143, Hachette. Présenté par Walt Disney, illustré par Henri Dimpre.
-1960 : Un guet-apens pour Davy Crockett. Coll. Idéal-Bibliothèque, Hachette. Illustré par Henri Dimpre.
-Série Monica
-1958 : Fille de la montagne[2], coll. Bibliothèque verte, Hachette. Illustré par Philippe Daure. Roman.
+1960 : Un guet-apens pour Davy Crockett. Coll. Idéal-Bibliothèque, Hachette. Illustré par Henri Dimpre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Monica</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1958 : Fille de la montagne, coll. Bibliothèque verte, Hachette. Illustré par Philippe Daure. Roman.
 1959 : Monica et le prince, coll. Bibliothèque verte no 149, Hachette. Rééditions : 1961. Illustrées par Philippe Daure.
-1961 : Monica et les conspirateurs, coll. Bibliothèque verte, Hachette. Illustré par Philippe Daure.
-Divers hors-séries
-1943 : La Ballade des tordus : Prusse orientale. Éditions Plon, coll. Les Cahiers des captifs (non jeunesse), prix Lange de l’Académie française en 1944.
+1961 : Monica et les conspirateurs, coll. Bibliothèque verte, Hachette. Illustré par Philippe Daure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En tant qu'auteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Divers hors-séries</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1943 : La Ballade des tordus : Prusse orientale. Éditions Plon, coll. Les Cahiers des captifs (non jeunesse), prix Lange de l’Académie française en 1944.
 1945 : Les Guetteurs, roman. Éditions Plon. 281 p.
 1946 : La Déesse. Éditions Plon.
 1956 : La Charge de la brigade légère. Coll. Idéal-Bibliothèque, Hachette. Illustré par Jean Reschofsky.
@@ -536,26 +664,177 @@
 1967 : Le Chien qui savait tout (avec Anne White), coll. Nouvelle Bibliothèque rose no 245, Hachette. Illustrations de François Batet.
 1970 : Un amour de coccinelle, adaptation française du film homonyme de Walt Disney. Coll. Bibliothèque verte, Hachette. Illustrations de Daniel Billon.
 1971 : Noël pour une bergère, Coll. Nouvelle Bibliothèque rose no 108, Hachette. Illustrations de Paul Durand.
-1972 : Les Mots de mon jardin, Hachette.
-En tant que traducteur
-Série Richard Bolitho
-Richard Bolitho, aspirant de marine de Alexander Kent, 1976. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
+1972 : Les Mots de mon jardin, Hachette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Richard Bolitho</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Richard Bolitho, aspirant de marine de Alexander Kent, 1976. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
 Richard Bolitho prend son commandement de Alexander Kent, 1977. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
 Richard Bolitho maître à bord de Alexander Kent, 1977. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
 Richard  Bolitho à l'abordage de Alexander Kent, 1978. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
 Richard  Bolitho passe à l'attaque de Alexander Kent, 1978. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
-L'Aspirant Bolitho contre les naufrageurs de Alexander Kent, 1979. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.
-Série Cricketto
-Cricketto de Napoli de David Scott Daniell. Hachette, coll. Nouvelle Bibliothèque rose, 1963. Illustrations de François Batet.
+L'Aspirant Bolitho contre les naufrageurs de Alexander Kent, 1979. Hachette, coll. Bibliothèque verte. Illustrations de Philippe Daure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Cricketto</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cricketto de Napoli de David Scott Daniell. Hachette, coll. Nouvelle Bibliothèque rose, 1963. Illustrations de François Batet.
 Cricketto dans la forêt vierge de David Daniell. Hachette, coll. Nouvelle Bibliothèque rose, 1968. Illustrations de François Batet.
 Cricketto et le petit prince de David Daniell. Hachette, coll. Nouvelle Bibliothèque rose, 1964. Illustrations de François Batet.
 Cricketto chez les écossais de David Daniell. Hachette, coll. Nouvelle Bibliothèque rose, 1969. Illustrations de François Batet.
-Cricketto dans l'île mystérieuse de David Daniell. Hachette, coll. Nouvelle Bibliothèque rose no 198, 1965.
-Série Docteur Dolittle
-Le Cirque du Docteur Dolittle de Hugh Lofting. Hachette, coll. Idéal-Bibliothèque no 333, 1967. Illustrations originales de l'auteur.
-Le Docteur Dolittle roi de la piste de Hugh Lofting. Hachette, coll. Idéal-Bibliothèque no 339, 1968.
-Série L'Étalon noir
-Flamme et les pur-sang de Walter Farley. Hachette, coll. Bibliothèque verte, 1964. Illustrations de J.-P. Ariel.
+Cricketto dans l'île mystérieuse de David Daniell. Hachette, coll. Nouvelle Bibliothèque rose no 198, 1965.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Docteur Dolittle</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Cirque du Docteur Dolittle de Hugh Lofting. Hachette, coll. Idéal-Bibliothèque no 333, 1967. Illustrations originales de l'auteur.
+Le Docteur Dolittle roi de la piste de Hugh Lofting. Hachette, coll. Idéal-Bibliothèque no 339, 1968.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série L'Étalon noir</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Flamme et les pur-sang de Walter Farley. Hachette, coll. Bibliothèque verte, 1964. Illustrations de J.-P. Ariel.
 Le Fils de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1967. Illustrations de Raoul Auger.
 Le Ranch de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1968. Illustrations de Raoul Auger.
 Sur les traces de l'Étalon noir' de Walter Farley. Hachette, coll. Bibliothèque verte, 1969. Illustrations de Raoul Auger. 
@@ -567,43 +846,347 @@
 Le Courage de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1975. Illustrations de François Batet.
 Le Prestige de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1976. Illustrations de François Batet.
 Le Secret de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1977. Illustrations de François Batet.
-Le Fantôme de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1978. Illustrations de François Batet.
-Série Peyton Place
-Les Plaisirs de l'enfer (Peyton Place), de Grace Metalious. Éditions Colbert, 1958.
+Le Fantôme de l'Étalon noir de Walter Farley. Hachette, coll. Bibliothèque verte, 1978. Illustrations de François Batet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Peyton Place</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les Plaisirs de l'enfer (Peyton Place), de Grace Metalious. Éditions Colbert, 1958.
 Peyton Place, de Grace Metalious. Éditions Seghers, 1977.
-Retour à Peyton Place, de Grace Metalious. Éditions J'ai lu no 905, 1979.
-Série Les Pisteurs
-Le Club des pisteurs, de E. W. Hildick, 1969. Hachette, coll. Nouvelle Bibliothèque rose no 329. Illustrations de Daniel Billon.
+Retour à Peyton Place, de Grace Metalious. Éditions J'ai lu no 905, 1979.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Les Pisteurs</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Club des pisteurs, de E. W. Hildick, 1969. Hachette, coll. Nouvelle Bibliothèque rose no 329. Illustrations de Daniel Billon.
 Les Pisteurs et l'homme sans voix, de E. W. Hildick, 1970, Hachette, coll. Nouvelle Bibliothèque rose no 355. Illustrations de Daniel Billon.
-Les Pisteurs et le train fou, de E. W. Hildick, 1970. Hachette, coll. Nouvelle Bibliothèque rose. Illustrations de Daniel Billon.
-Série Walt Disney
-Du vent dans les voiles (Les Boatniks), de Walt Disney. Hachette, coll. Bibliothèque verte. 1971. Illustrations de François Batet.
+Les Pisteurs et le train fou, de E. W. Hildick, 1970. Hachette, coll. Nouvelle Bibliothèque rose. Illustrations de Daniel Billon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série Walt Disney</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Du vent dans les voiles (Les Boatniks), de Walt Disney. Hachette, coll. Bibliothèque verte. 1971. Illustrations de François Batet.
 L’Étudiant et le chimpanzé, de Walt Disney. Hachette, coll. Bibliothèque verte, 1971. Illustrations de François Batet.
 Le Livre de la jungle, de Walt Disney.
-Les Aristochats, de Walt Disney. D'après une histoire de Tom Rowe. Hachette, coll. Idéal-Bibliothèque, 1982.
-Romans de Barbara Cartland
-Le Valet de cœur, de Barbara Cartland. Éditions Colbert, 1953. In-8°, 254 p.
+Les Aristochats, de Walt Disney. D'après une histoire de Tom Rowe. Hachette, coll. Idéal-Bibliothèque, 1982.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Romans de Barbara Cartland</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Le Valet de cœur, de Barbara Cartland. Éditions Colbert, 1953. In-8°, 254 p.
 Cœur captif, de Barbara Cartland. Éditions Tallandier, 1960.
 La Fille de Séréna (rebaptisé plus tard Duel en héritage), de Barbara Cartland. Éditions J'ai lu, 1962.
 Amour secret (Floralies), de Barbara Cartland. Éditions J. Tallandier, 1976.
 Le Cavalier masqué, de Barbara Cartland. Éditions Hachette J. Tallandier, 1980.
 Le Baiser du diable, de Barbara Cartland. Éditions J'ai lu, 19??.
-Le Fantôme de Monte-Carlo, de Barbara Cartland. Éditeur : Les œuvres romanesques de Barbara Cartland, 1982.
-Romans de Hammond Innes
-Croix-du-Sud ne répond plus, de Hammond Innes. Hachette, coll. Grands romans étrangers, 1951.
+Le Fantôme de Monte-Carlo, de Barbara Cartland. Éditeur : Les œuvres romanesques de Barbara Cartland, 1982.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Romans de Hammond Innes</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Croix-du-Sud ne répond plus, de Hammond Innes. Hachette, coll. Grands romans étrangers, 1951.
 La Montagne en furie, de Hammond Innes. Hachette, 1952.
 Le Royaume de Campbell, de Hammond Innes. Hachette, collection Grands Romans étrangers, 1953.
-L'Enfer au-dessous de zéro, de Hammond Innes. Hachette, coll. Bibliothèque rouge, 1974.
-Romans de Ewan Clarkson
-Kajou le blaireau, de Ewan Clarkson. Hachette, coll. Bibliothèque verte, 1978. Illustré par Yves Beaujard.
+L'Enfer au-dessous de zéro, de Hammond Innes. Hachette, coll. Bibliothèque rouge, 1974.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Romans de Ewan Clarkson</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Kajou le blaireau, de Ewan Clarkson. Hachette, coll. Bibliothèque verte, 1978. Illustré par Yves Beaujard.
 King, le cerf, Ewan Clarkson. Hachette, coll. Bibliothèque verte, 1979. Illustré par François Bourgeon.
-Halic le phoque, de Ewan Clarkson. Éditions Le Livre de poche, 1980. Illustré par Dominique Sablons.
-Romans de Rosamond Marshall
-Jane Hadden, de Rosamond Marshall. Éditions Colbert, 1953.
+Halic le phoque, de Ewan Clarkson. Éditions Le Livre de poche, 1980. Illustré par Dominique Sablons.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Romans de Rosamond Marshall</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jane Hadden, de Rosamond Marshall. Éditions Colbert, 1953.
 Kitty, de Rosamond Marshall. Éditions Colbert, 1953.
-Farandole d'amour, de Rosamond Marshall. Éditions Colbert, 1955.
-Auteurs classiques
-Don Quichotte de Miguel de Cervantes. Hachette, coll. Idéal-Bibliothèque, 1952. Illustrations de Jacques Pecnard.
+Farandole d'amour, de Rosamond Marshall. Éditions Colbert, 1955.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Auteurs classiques</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Don Quichotte de Miguel de Cervantes. Hachette, coll. Idéal-Bibliothèque, 1952. Illustrations de Jacques Pecnard.
 Moby Dick de Herman Melville. Hachette, coll. Collection des grands romanciers, 1954. Illustrations de Paul Durand. In-fol., 160 p.
 Le Prince et le Pauvre de Mark Twain. Hachette, coll. Bibliothèque verte, 1954. Illustrations de Jacques Pecnard. In-16, 192 p.
 Rob Roy, de Walter Scott. Hachette, coll. Idéal-Bibliothèque, 1954.
@@ -611,9 +1194,47 @@
 L'Appel de la forêt, de Jack London.
 Olivier Twist, de Charles Dickens, Beuville et Jean Muray. Hachette, coll. Galaxie, 1978.
 Martin Eden (Le Cabinet cosmopolite), de Jack London. Éditions Stock, 1977.
-Le Cas étrange du Dr Jekyll et de M. Hyde, de Robert Louis Stevenson, 1988.
-Divers
-Les Quatre Justiciers, de Edgar Wallace, 1929.
+Le Cas étrange du Dr Jekyll et de M. Hyde, de Robert Louis Stevenson, 1988.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jean_Muray</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Muray</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>En tant que traducteur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les Quatre Justiciers, de Edgar Wallace, 1929.
 La Maison des cinq vertus de Danièle Varè. Éditeur : Plon, 1947.
 La Turquoise de Anya Seton. Hachette, 1948. 384p-In8-Broché.
 Dans la forêt siamoise de Reginald Campbell. Hachette, coll. Jeunesse du monde, 1950.
